--- a/Code/Results/Cases/Case_0_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_103/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.932455851567781</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16.1195797344947</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.982714926826246</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>123.0179702750952</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.947564441077763</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.58442710830854</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.805489392799</v>
+      </c>
+      <c r="D3">
+        <v>15.6010282823717</v>
+      </c>
+      <c r="E3">
+        <v>7.936176927226435</v>
+      </c>
+      <c r="F3">
+        <v>120.858072373025</v>
+      </c>
+      <c r="G3">
+        <v>3.975673760566734</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12.64018574344465</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18.40031508502705</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.730040306650403</v>
+      </c>
+      <c r="D4">
+        <v>15.28862729676349</v>
+      </c>
+      <c r="E4">
+        <v>7.90796410566846</v>
+      </c>
+      <c r="F4">
+        <v>119.6054370910191</v>
+      </c>
+      <c r="G4">
+        <v>3.99342886354034</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12.67930056391693</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.02485520896364</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.699935233641447</v>
+      </c>
+      <c r="D5">
+        <v>15.16291755560447</v>
+      </c>
+      <c r="E5">
+        <v>7.896543388689961</v>
+      </c>
+      <c r="F5">
+        <v>119.1132588632152</v>
+      </c>
+      <c r="G5">
+        <v>4.000795225964805</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12.69644238661457</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.86990355188116</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.694975333772097</v>
+      </c>
+      <c r="D6">
+        <v>15.14214274042743</v>
+      </c>
+      <c r="E6">
+        <v>7.89465118261609</v>
+      </c>
+      <c r="F6">
+        <v>119.0326306791331</v>
+      </c>
+      <c r="G6">
+        <v>4.002026493944468</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12.69936069751328</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.84406337566596</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.729631689662546</v>
+      </c>
+      <c r="D7">
+        <v>15.28692534334114</v>
+      </c>
+      <c r="E7">
+        <v>7.907809791848619</v>
+      </c>
+      <c r="F7">
+        <v>119.5987256750526</v>
+      </c>
+      <c r="G7">
+        <v>3.993527670379444</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12.67952690802824</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.02277304766463</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.888162880962942</v>
+      </c>
+      <c r="D8">
+        <v>15.93958996886098</v>
+      </c>
+      <c r="E8">
+        <v>7.966584325650762</v>
+      </c>
+      <c r="F8">
+        <v>122.2578439855652</v>
+      </c>
+      <c r="G8">
+        <v>3.957157576249285</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>12.60262473497729</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.79364780656866</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5.218602991424306</v>
+      </c>
+      <c r="D9">
+        <v>17.26380153443487</v>
+      </c>
+      <c r="E9">
+        <v>8.085443603998902</v>
+      </c>
+      <c r="F9">
+        <v>128.0661732834643</v>
+      </c>
+      <c r="G9">
+        <v>3.889457464508998</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12.49173803892291</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>20.22736832029966</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5.473109325729085</v>
+      </c>
+      <c r="D10">
+        <v>18.26093914876212</v>
+      </c>
+      <c r="E10">
+        <v>8.17610768710632</v>
+      </c>
+      <c r="F10">
+        <v>132.7125326995617</v>
+      </c>
+      <c r="G10">
+        <v>3.84144181105693</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>12.4364533531853</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.22223697909766</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.591502235943924</v>
+      </c>
+      <c r="D11">
+        <v>18.71976027333102</v>
+      </c>
+      <c r="E11">
+        <v>8.218371268724413</v>
+      </c>
+      <c r="F11">
+        <v>134.9135707964268</v>
+      </c>
+      <c r="G11">
+        <v>3.819849223331989</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>12.41745388998594</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21.66018057919896</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.636725035462476</v>
+      </c>
+      <c r="D12">
+        <v>18.89428975424928</v>
+      </c>
+      <c r="E12">
+        <v>8.234550211132486</v>
+      </c>
+      <c r="F12">
+        <v>135.7601561690833</v>
+      </c>
+      <c r="G12">
+        <v>3.811696863576244</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>12.41118776025456</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>21.82377585681918</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.626967839163357</v>
+      </c>
+      <c r="D13">
+        <v>18.85666590911072</v>
+      </c>
+      <c r="E13">
+        <v>8.231057533434752</v>
+      </c>
+      <c r="F13">
+        <v>135.5772361705229</v>
+      </c>
+      <c r="G13">
+        <v>3.813451741882881</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12.41249522593097</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>21.78864458690796</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.595214817306839</v>
+      </c>
+      <c r="D14">
+        <v>18.73410288334804</v>
+      </c>
+      <c r="E14">
+        <v>8.219698646406401</v>
+      </c>
+      <c r="F14">
+        <v>134.9829537662731</v>
+      </c>
+      <c r="G14">
+        <v>3.819178109230485</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>12.41691949037604</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>21.67368539489593</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.57581651687954</v>
+      </c>
+      <c r="D15">
+        <v>18.65913320590202</v>
+      </c>
+      <c r="E15">
+        <v>8.212764637251148</v>
+      </c>
+      <c r="F15">
+        <v>134.6206629380566</v>
+      </c>
+      <c r="G15">
+        <v>3.822688465615305</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>12.4197518054882</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.60297336126115</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.465425701166576</v>
+      </c>
+      <c r="D16">
+        <v>18.23106114342243</v>
+      </c>
+      <c r="E16">
+        <v>8.173368495544162</v>
+      </c>
+      <c r="F16">
+        <v>132.5704906079694</v>
+      </c>
+      <c r="G16">
+        <v>3.842857003839909</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>12.43782242824601</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.19330956972086</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.398381809447223</v>
+      </c>
+      <c r="D17">
+        <v>17.96980175778021</v>
+      </c>
+      <c r="E17">
+        <v>8.149480261135125</v>
+      </c>
+      <c r="F17">
+        <v>131.3354954158663</v>
+      </c>
+      <c r="G17">
+        <v>3.855285926000199</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>12.45051318989127</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>20.93814219015166</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.360064938831907</v>
+      </c>
+      <c r="D18">
+        <v>17.82001932353232</v>
+      </c>
+      <c r="E18">
+        <v>8.135834516332997</v>
+      </c>
+      <c r="F18">
+        <v>130.6333447821147</v>
+      </c>
+      <c r="G18">
+        <v>3.862459020448602</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>12.45838850400734</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>20.79000725568141</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5.347133304670763</v>
+      </c>
+      <c r="D19">
+        <v>17.76938878749135</v>
+      </c>
+      <c r="E19">
+        <v>8.13122967618348</v>
+      </c>
+      <c r="F19">
+        <v>130.3970005295367</v>
+      </c>
+      <c r="G19">
+        <v>3.864892213677242</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12.46115259910279</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20.73962067985785</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.405493317443479</v>
+      </c>
+      <c r="D20">
+        <v>17.99756273106044</v>
+      </c>
+      <c r="E20">
+        <v>8.152013270851761</v>
+      </c>
+      <c r="F20">
+        <v>131.4661121236795</v>
+      </c>
+      <c r="G20">
+        <v>3.853960410156543</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>12.44910232646697</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>20.96544799483449</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.604530712728161</v>
+      </c>
+      <c r="D21">
+        <v>18.77008088769273</v>
+      </c>
+      <c r="E21">
+        <v>8.22303004561005</v>
+      </c>
+      <c r="F21">
+        <v>135.1571484084528</v>
+      </c>
+      <c r="G21">
+        <v>3.817495577645091</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>12.41559439783477</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>21.70751365554064</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.736899232356151</v>
+      </c>
+      <c r="D22">
+        <v>19.27957854559158</v>
+      </c>
+      <c r="E22">
+        <v>8.270477372679581</v>
+      </c>
+      <c r="F22">
+        <v>137.6461700098741</v>
+      </c>
+      <c r="G22">
+        <v>3.793798708754785</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>12.39913176482459</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>22.17935961385674</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.66603558244454</v>
+      </c>
+      <c r="D23">
+        <v>19.00720696228397</v>
+      </c>
+      <c r="E23">
+        <v>8.245048998190105</v>
+      </c>
+      <c r="F23">
+        <v>136.3104968812916</v>
+      </c>
+      <c r="G23">
+        <v>3.806438077783215</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>12.40740471795762</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>21.92877110911181</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.402277496796231</v>
+      </c>
+      <c r="D24">
+        <v>17.98501069173712</v>
+      </c>
+      <c r="E24">
+        <v>8.150867825371551</v>
+      </c>
+      <c r="F24">
+        <v>131.40703585209</v>
+      </c>
+      <c r="G24">
+        <v>3.854559589222369</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>12.44973837693694</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>20.95310750188673</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5.127151015743333</v>
+      </c>
+      <c r="D25">
+        <v>16.90119130888077</v>
+      </c>
+      <c r="E25">
+        <v>8.052793006819645</v>
+      </c>
+      <c r="F25">
+        <v>126.4297117227965</v>
+      </c>
+      <c r="G25">
+        <v>3.907431347657812</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>12.51728244900578</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>19.84905939529497</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
